--- a/data/trans_dic/P64D$andando_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P64D$andando_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,21; 23,08</t>
+          <t>10,87; 22,32</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>22,02; 34,16</t>
+          <t>21,78; 34,96</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,72; 25,95</t>
+          <t>16,96; 25,42</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,49; 28,03</t>
+          <t>14,47; 28,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>23,41; 35,96</t>
+          <t>23,16; 35,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>19,44; 29,39</t>
+          <t>19,4; 29,16</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,5; 31,79</t>
+          <t>18,45; 32,84</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>33,25; 49,13</t>
+          <t>33,41; 49,13</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,55; 37,82</t>
+          <t>27,3; 38,11</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>14,39; 29,55</t>
+          <t>14,5; 29,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 33,88</t>
+          <t>9,36; 34,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,75; 28,29</t>
+          <t>11,36; 28,16</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>36,78; 51,83</t>
+          <t>35,66; 51,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>50,54; 64,35</t>
+          <t>50,53; 64,08</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,67; 55,92</t>
+          <t>45,31; 56,11</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,38; 36,41</t>
+          <t>21,51; 36,38</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,42; 62,84</t>
+          <t>44,5; 63,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>32,97; 44,27</t>
+          <t>33,23; 44,67</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,38; 13,56</t>
+          <t>6,43; 13,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,78; 27,86</t>
+          <t>20,04; 28,64</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,56; 19,36</t>
+          <t>13,71; 19,4</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,01; 29,84</t>
+          <t>6,56; 30,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>40,16; 51,03</t>
+          <t>40,17; 51,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>12,12; 36,83</t>
+          <t>11,74; 37,15</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>12,48; 22,99</t>
+          <t>13,03; 23,09</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28,94; 37,15</t>
+          <t>28,65; 37,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,75; 28,55</t>
+          <t>19,74; 28,52</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se desplaza desde su casa al centro de trabajo/estudios andando</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>31046</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>39295</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>70341</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>20885; 42892</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31441; 50462</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>57058; 85554</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>49981</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>48658</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>98639</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35544; 70474</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>38361; 59584</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>79763; 119910</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>36679</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>50176</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>86855</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>27426; 48828</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>40376; 59385</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73590; 102731</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>35854</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53865</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>89719</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>24272; 48748</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24220; 88136</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>48420; 119996</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>50216</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>61878</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>112094</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>40732; 58956</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>54130; 68642</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>100297; 124206</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>38585</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46510</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>85095</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>29058; 49137</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>38447; 54468</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>73588; 98923</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>31948</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>73081</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>105029</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>21507; 45336</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>61458; 87843</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>87890; 124362</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>109707</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>124464</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>234171</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>41217; 192561</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>108886; 139460</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>105616; 334133</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>778</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1179</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>384014</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>497928</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>881942</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>256105; 453789</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>418556; 546259</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>676360; 977176</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>